--- a/biology/Botanique/Galeopsis_ladanum/Galeopsis_ladanum.xlsx
+++ b/biology/Botanique/Galeopsis_ladanum/Galeopsis_ladanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galéopside intermédiaire, Galéopsis ladanum
-La Galéopside intermédiaire ou Galéopsis ladanum, Galeopsis ladanum, est une espèce de plantes herbacées du genre Galeopsis appartenant à la famille des Lamiacées[1].
+La Galéopside intermédiaire ou Galéopsis ladanum, Galeopsis ladanum, est une espèce de plantes herbacées du genre Galeopsis appartenant à la famille des Lamiacées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La galéopside intermédiaire a d'autres noms vulgaires : galéopside blanche jaunâtre, galéopside à grandes fleurs, galéopside douteuse... ainsi que des noms vernaculaires comme figure de chat[2]. Du fait de la forme de ses feuilles la plante est parfois aussi appelée Chanvre sauvage ou encore Ortie rouge, noms d'ordinaire réservés à d'autres plantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La galéopside intermédiaire a d'autres noms vulgaires : galéopside blanche jaunâtre, galéopside à grandes fleurs, galéopside douteuse... ainsi que des noms vernaculaires comme figure de chat. Du fait de la forme de ses feuilles la plante est parfois aussi appelée Chanvre sauvage ou encore Ortie rouge, noms d'ordinaire réservés à d'autres plantes.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle, petite, pubescente.
-Tiges peu enflées à l'attache des fleurs, ce qui le différencie du Galeopsis tetrahit[3].
+Tiges peu enflées à l'attache des fleurs, ce qui le différencie du Galeopsis tetrahit.
 Fleurs rose foncé, mouchetées de blanc.
-Une forme blanche existe[4].
-Feuilles ovales-aiguës à dents bien marquées, ce qui le différencie du Galeopsis angustifolia[5].
+Une forme blanche existe.
+Feuilles ovales-aiguës à dents bien marquées, ce qui le différencie du Galeopsis angustifolia.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante se rencontre sur une large part du continent européen, jusqu'à la Roumanie, la Turquie, l'Ukraine[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se rencontre sur une large part du continent européen, jusqu'à la Roumanie, la Turquie, l'Ukraine.
 </t>
         </is>
       </c>
